--- a/english-anna-stock.xlsx
+++ b/english-anna-stock.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="75" windowWidth="19020" windowHeight="11640"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="english-daniel-stock" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
@@ -1576,24 +1576,24 @@
     <t>acro mode!  On!</t>
   </si>
   <si>
-    <t xml:space="preserve">Incorrect takeoff configuration. Throttle Enabled. Please check transmitter.
+    <t>Flight Battery Low!</t>
+  </si>
+  <si>
+    <t>Receiver Voltage too low.</t>
+  </si>
+  <si>
+    <t>No Telemetry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incorrect takeoff configuration, Ttrottle Enabled. Please check transmitter. Please Transmitter flight mode.
 </t>
-  </si>
-  <si>
-    <t>Flight Battery Low!</t>
-  </si>
-  <si>
-    <t>Receiver Voltage too low.</t>
-  </si>
-  <si>
-    <t>No Telemetry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1604,7 +1604,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -1647,8 +1670,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -1656,41 +1680,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -1705,17 +1695,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -1741,7 +1731,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -1757,27 +1764,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
@@ -1797,43 +1892,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
@@ -1843,43 +1902,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
@@ -1889,43 +1912,27 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
+        <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -1935,6 +1942,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1965,17 +1987,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1997,45 +2043,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2047,47 +2054,47 @@
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2097,61 +2104,56 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 1. jelölőszín" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 2. jelölőszín" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 3. jelölőszín" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 4. jelölőszín" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 5. jelölőszín" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 6. jelölőszín" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 1. jelölőszín" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 2. jelölőszín" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 3. jelölőszín" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 4. jelölőszín" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 5. jelölőszín" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 6. jelölőszín" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 1. jelölőszín" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 2. jelölőszín" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 3. jelölőszín" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 4. jelölőszín" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 5. jelölőszín" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 6. jelölőszín" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bevitel" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Cím" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Címsor 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Címsor 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Címsor 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Címsor 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Ellenőrzőcella" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Figyelmeztetés" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Hivatkozott cella" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Jegyzet" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Jelölőszín (1)" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Jelölőszín (2)" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Jelölőszín (3)" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Jelölőszín (4)" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Jelölőszín (5)" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Jelölőszín (6)" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Jó" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Kimenet" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Magyarázó szöveg" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="20% - 1. jelölőszín" xfId="1" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 2. jelölőszín" xfId="2" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 3. jelölőszín" xfId="3" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 4. jelölőszín" xfId="4" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 5. jelölőszín" xfId="5" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 6. jelölőszín" xfId="6" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 1. jelölőszín" xfId="7" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 2. jelölőszín" xfId="8" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 3. jelölőszín" xfId="9" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 4. jelölőszín" xfId="10" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 5. jelölőszín" xfId="11" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 6. jelölőszín" xfId="12" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 1. jelölőszín" xfId="13" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 2. jelölőszín" xfId="14" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 3. jelölőszín" xfId="15" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 4. jelölőszín" xfId="16" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 5. jelölőszín" xfId="17" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 6. jelölőszín" xfId="18" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bevitel" xfId="19" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Cím" xfId="20" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Címsor 1" xfId="21" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Címsor 2" xfId="22" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Címsor 3" xfId="23" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Címsor 4" xfId="24" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Ellenőrzőcella" xfId="25" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Figyelmeztetés" xfId="26" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Hivatkozott cella" xfId="27" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Jegyzet" xfId="28" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Jelölőszín (1)" xfId="29" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Jelölőszín (2)" xfId="30" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Jelölőszín (3)" xfId="31" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Jelölőszín (4)" xfId="32" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Jelölőszín (5)" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Jelölőszín (6)" xfId="34" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Jó" xfId="35" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Kimenet" xfId="36" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Magyarázó szöveg" xfId="37" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
-    <cellStyle name="Összesen" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Rossz" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Semleges" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Számítás" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Összesen" xfId="38" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Rossz" xfId="39" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Semleges" xfId="40" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Számítás" xfId="41" builtinId="22" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2225,7 +2227,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2260,7 +2261,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2436,20 +2436,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B428"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A310" workbookViewId="0">
-      <selection activeCell="B335" sqref="B335"/>
+      <selection activeCell="B316" sqref="B316"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="73.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2521,7 +2521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -2545,7 +2545,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
@@ -2721,7 +2721,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
@@ -2737,7 +2737,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
@@ -2793,7 +2793,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
@@ -2865,7 +2865,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
@@ -2937,7 +2937,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
@@ -2953,7 +2953,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
@@ -2985,7 +2985,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
@@ -3001,7 +3001,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
@@ -3033,7 +3033,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
@@ -3049,7 +3049,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
@@ -3113,7 +3113,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
@@ -3121,7 +3121,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
@@ -3153,7 +3153,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
@@ -3217,7 +3217,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
@@ -3225,7 +3225,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2">
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
@@ -3233,7 +3233,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
@@ -3249,7 +3249,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
@@ -3257,7 +3257,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2">
       <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2">
       <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
@@ -3273,7 +3273,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2">
       <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
@@ -3305,7 +3305,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2">
       <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2">
       <c r="A111" s="1" t="s">
         <v>111</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2">
       <c r="A112" s="1" t="s">
         <v>113</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
         <v>115</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2">
       <c r="A114" s="1" t="s">
         <v>117</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2">
       <c r="A115" s="1" t="s">
         <v>119</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2">
       <c r="A116" s="1" t="s">
         <v>121</v>
       </c>
@@ -3377,7 +3377,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2">
       <c r="A117" s="1" t="s">
         <v>123</v>
       </c>
@@ -3385,7 +3385,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2">
       <c r="A118" s="1" t="s">
         <v>125</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2">
       <c r="A119" s="1" t="s">
         <v>127</v>
       </c>
@@ -3401,17 +3401,17 @@
         <v>128</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2">
       <c r="A120" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2">
       <c r="A121" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2">
       <c r="A122" s="1" t="s">
         <v>131</v>
       </c>
@@ -3419,7 +3419,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2">
       <c r="A123" s="1" t="s">
         <v>133</v>
       </c>
@@ -3427,7 +3427,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2">
       <c r="A124" s="1" t="s">
         <v>135</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2">
       <c r="A125" s="1" t="s">
         <v>137</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2">
       <c r="A126" s="1" t="s">
         <v>139</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2">
       <c r="A127" s="1" t="s">
         <v>141</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2">
       <c r="A128" s="1" t="s">
         <v>143</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2">
       <c r="A129" s="1" t="s">
         <v>145</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2">
       <c r="A130" s="1" t="s">
         <v>146</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2">
       <c r="A131" s="1" t="s">
         <v>148</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2">
       <c r="A132" s="1" t="s">
         <v>150</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2">
       <c r="A133" s="1" t="s">
         <v>152</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2">
       <c r="A134" s="1" t="s">
         <v>154</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2">
       <c r="A135" s="1" t="s">
         <v>156</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2">
       <c r="A136" s="1" t="s">
         <v>158</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2">
       <c r="A137" s="1" t="s">
         <v>160</v>
       </c>
@@ -3539,7 +3539,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2">
       <c r="A138" s="1" t="s">
         <v>161</v>
       </c>
@@ -3547,7 +3547,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2">
       <c r="A139" s="1" t="s">
         <v>163</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2">
       <c r="A140" s="1" t="s">
         <v>165</v>
       </c>
@@ -3563,7 +3563,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2">
       <c r="A141" s="1" t="s">
         <v>167</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2">
       <c r="A142" s="1" t="s">
         <v>169</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2">
       <c r="A143" s="1" t="s">
         <v>171</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2">
       <c r="A144" s="1" t="s">
         <v>173</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2">
       <c r="A145" s="1" t="s">
         <v>175</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2">
       <c r="A146" s="1" t="s">
         <v>177</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2">
       <c r="A147" s="1" t="s">
         <v>179</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2">
       <c r="A148" s="1" t="s">
         <v>181</v>
       </c>
@@ -3627,7 +3627,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2">
       <c r="A149" s="1" t="s">
         <v>183</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2">
       <c r="A150" s="1" t="s">
         <v>184</v>
       </c>
@@ -3643,7 +3643,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2">
       <c r="A151" s="1" t="s">
         <v>186</v>
       </c>
@@ -3651,7 +3651,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2">
       <c r="A152" s="1" t="s">
         <v>187</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2">
       <c r="A153" s="1" t="s">
         <v>189</v>
       </c>
@@ -3667,7 +3667,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2">
       <c r="A154" s="1" t="s">
         <v>191</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2">
       <c r="A155" s="1" t="s">
         <v>193</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2">
       <c r="A156" s="1" t="s">
         <v>195</v>
       </c>
@@ -3691,7 +3691,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2">
       <c r="A157" s="1" t="s">
         <v>197</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2">
       <c r="A158" s="1" t="s">
         <v>199</v>
       </c>
@@ -3707,7 +3707,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2">
       <c r="A159" s="1" t="s">
         <v>201</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2">
       <c r="A160" s="1" t="s">
         <v>203</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2">
       <c r="A161" s="1" t="s">
         <v>205</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2">
       <c r="A162" s="1" t="s">
         <v>207</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2">
       <c r="A163" s="1" t="s">
         <v>209</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2">
       <c r="A164" s="1" t="s">
         <v>211</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2">
       <c r="A165" s="1" t="s">
         <v>213</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2">
       <c r="A166" s="1" t="s">
         <v>215</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2">
       <c r="A167" s="1" t="s">
         <v>217</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2">
       <c r="A168" s="1" t="s">
         <v>219</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2">
       <c r="A169" s="1" t="s">
         <v>220</v>
       </c>
@@ -3795,7 +3795,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2">
       <c r="A170" s="1" t="s">
         <v>221</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2">
       <c r="A171" s="1" t="s">
         <v>222</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2">
       <c r="A172" s="1" t="s">
         <v>223</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2">
       <c r="A173" s="1" t="s">
         <v>224</v>
       </c>
@@ -3827,7 +3827,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2">
       <c r="A174" s="1" t="s">
         <v>225</v>
       </c>
@@ -3835,7 +3835,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2">
       <c r="A175" s="1" t="s">
         <v>226</v>
       </c>
@@ -3843,7 +3843,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2">
       <c r="A176" s="1" t="s">
         <v>227</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2">
       <c r="A177" s="1" t="s">
         <v>228</v>
       </c>
@@ -3859,7 +3859,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2">
       <c r="A178" s="1" t="s">
         <v>229</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2">
       <c r="A179" s="1" t="s">
         <v>230</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2">
       <c r="A180" s="1" t="s">
         <v>231</v>
       </c>
@@ -3883,15 +3883,15 @@
         <v>512</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2">
       <c r="A181" s="1" t="s">
         <v>232</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
       <c r="A182" s="1" t="s">
         <v>233</v>
       </c>
@@ -3899,7 +3899,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2">
       <c r="A183" s="1" t="s">
         <v>234</v>
       </c>
@@ -3907,7 +3907,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2">
       <c r="A184" s="1" t="s">
         <v>235</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2">
       <c r="A185" s="1" t="s">
         <v>236</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2">
       <c r="A186" s="1" t="s">
         <v>237</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2">
       <c r="A187" s="1" t="s">
         <v>238</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2">
       <c r="A188" s="1" t="s">
         <v>239</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2">
       <c r="A189" s="1" t="s">
         <v>240</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2">
       <c r="A190" s="1" t="s">
         <v>241</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2">
       <c r="A191" s="1" t="s">
         <v>242</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2">
       <c r="A192" s="1" t="s">
         <v>243</v>
       </c>
@@ -3979,7 +3979,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2">
       <c r="A193" s="1" t="s">
         <v>244</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2">
       <c r="A194" s="1" t="s">
         <v>245</v>
       </c>
@@ -3995,7 +3995,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2">
       <c r="A195" s="1" t="s">
         <v>246</v>
       </c>
@@ -4003,7 +4003,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2">
       <c r="A196" s="1" t="s">
         <v>247</v>
       </c>
@@ -4011,7 +4011,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2">
       <c r="A197" s="1" t="s">
         <v>248</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2">
       <c r="A198" s="1" t="s">
         <v>249</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2">
       <c r="A199" s="1" t="s">
         <v>250</v>
       </c>
@@ -4035,7 +4035,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2">
       <c r="A200" s="1" t="s">
         <v>251</v>
       </c>
@@ -4043,7 +4043,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2">
       <c r="A201" s="1" t="s">
         <v>252</v>
       </c>
@@ -4051,585 +4051,585 @@
         <v>481</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2">
       <c r="A202" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2">
       <c r="A203" s="1" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2">
       <c r="A204" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2">
       <c r="A205" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2">
       <c r="A206" s="1" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2">
       <c r="A207" s="1" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2">
       <c r="A208" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1">
       <c r="A209" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1">
       <c r="A210" s="1" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1">
       <c r="A211" s="1" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1">
       <c r="A212" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1">
       <c r="A213" s="1" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1">
       <c r="A214" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1">
       <c r="A215" s="1" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1">
       <c r="A216" s="1" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1">
       <c r="A217" s="1" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1">
       <c r="A218" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1">
       <c r="A219" s="1" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1">
       <c r="A220" s="1" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1">
       <c r="A221" s="1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1">
       <c r="A222" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1">
       <c r="A223" s="1" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1">
       <c r="A224" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1">
       <c r="A225" s="1" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1">
       <c r="A226" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1">
       <c r="A227" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1">
       <c r="A228" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1">
       <c r="A229" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1">
       <c r="A230" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1">
       <c r="A231" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1">
       <c r="A232" s="1" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1">
       <c r="A233" s="1" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1">
       <c r="A234" s="1" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1">
       <c r="A235" s="1" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1">
       <c r="A236" s="1" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1">
       <c r="A237" s="1" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:1">
       <c r="A238" s="1" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:1">
       <c r="A239" s="1" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:1">
       <c r="A240" s="1" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:1">
       <c r="A241" s="1" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:1">
       <c r="A242" s="1" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:1">
       <c r="A243" s="1" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:1">
       <c r="A244" s="1" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:1">
       <c r="A245" s="1" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:1">
       <c r="A246" s="1" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:1">
       <c r="A247" s="1" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:1">
       <c r="A248" s="1" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:1">
       <c r="A249" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:1">
       <c r="A250" s="1" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:1">
       <c r="A251" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:1">
       <c r="A252" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:1">
       <c r="A253" s="1" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:1">
       <c r="A254" s="1" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:1">
       <c r="A255" s="1" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:1">
       <c r="A256" s="1" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:1">
       <c r="A257" s="1" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:1">
       <c r="A258" s="1" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:1">
       <c r="A259" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:1">
       <c r="A260" s="1" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:1">
       <c r="A261" s="1" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:1">
       <c r="A262" s="1" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:1">
       <c r="A263" s="1" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:1">
       <c r="A264" s="1" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:1">
       <c r="A265" s="1" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:1">
       <c r="A266" s="1" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:1">
       <c r="A267" s="1" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:1">
       <c r="A268" s="1" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:1">
       <c r="A269" s="1" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:1">
       <c r="A270" s="1" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:1">
       <c r="A271" s="1" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:1">
       <c r="A272" s="1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:1">
       <c r="A273" s="1" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:1">
       <c r="A274" s="1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:1">
       <c r="A275" s="1" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:1">
       <c r="A276" s="1" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:1">
       <c r="A277" s="1" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:1">
       <c r="A278" s="1" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:1">
       <c r="A279" s="1" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:1">
       <c r="A280" s="1" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:1">
       <c r="A281" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:1">
       <c r="A282" s="1" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:1">
       <c r="A283" s="1" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:1">
       <c r="A284" s="1" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:1">
       <c r="A285" s="1" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:1">
       <c r="A286" s="1" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:1">
       <c r="A287" s="1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:1">
       <c r="A288" s="1" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:1">
       <c r="A289" s="1" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:1">
       <c r="A290" s="1" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:1">
       <c r="A291" s="1" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:1">
       <c r="A292" s="1" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:1">
       <c r="A293" s="1" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:1">
       <c r="A294" s="1" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:1">
       <c r="A295" s="1" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:1">
       <c r="A296" s="1" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:1">
       <c r="A297" s="1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:1">
       <c r="A298" s="1" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:1">
       <c r="A299" s="1" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:1">
       <c r="A300" s="1" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:1">
       <c r="A301" s="1" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:1">
       <c r="A302" s="1" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:1">
       <c r="A303" s="1" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:1">
       <c r="A304" s="1" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2">
       <c r="A305" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2">
       <c r="A306" s="1" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2">
       <c r="A307" s="1" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2">
       <c r="A308" s="1" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2">
       <c r="A309" s="1" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2">
       <c r="A310" s="1" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2">
       <c r="A311" s="1" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2">
       <c r="A312" s="1" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2">
       <c r="A313" s="1" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2">
       <c r="A314" s="1" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2">
       <c r="A315" s="1" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" ht="45">
       <c r="A316" s="1" t="s">
         <v>367</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
       <c r="A317" s="1" t="s">
         <v>368</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2">
       <c r="A318" s="1" t="s">
         <v>369</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2">
       <c r="A319" s="1" t="s">
         <v>370</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2">
       <c r="A320" s="1" t="s">
         <v>371</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2">
       <c r="A321" s="1" t="s">
         <v>372</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2">
       <c r="A322" s="1" t="s">
         <v>373</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2">
       <c r="A323" s="1" t="s">
         <v>374</v>
       </c>
@@ -4685,538 +4685,539 @@
         <v>504</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2">
       <c r="A324" s="1" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2">
       <c r="A325" s="1" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2">
       <c r="A326" s="1" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2">
       <c r="A327" s="1" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2">
       <c r="A328" s="1" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2">
       <c r="A329" s="1" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2">
       <c r="A330" s="1" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2">
       <c r="A331" s="1" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2">
       <c r="A332" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2">
       <c r="A333" s="1" t="s">
         <v>384</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
       <c r="A334" s="1" t="s">
         <v>385</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
       <c r="A335" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2">
       <c r="A336" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:1">
       <c r="A337" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:1">
       <c r="A338" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:1">
       <c r="A339" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:1">
       <c r="A340" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:1">
       <c r="A341" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:1">
       <c r="A342" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:1">
       <c r="A343" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:1">
       <c r="A344" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:1">
       <c r="A345" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:1">
       <c r="A346" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:1">
       <c r="A347" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:1">
       <c r="A348" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:1">
       <c r="A349" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:1">
       <c r="A350" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:1">
       <c r="A351" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:1">
       <c r="A352" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:1">
       <c r="A353" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:1">
       <c r="A354" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:1">
       <c r="A355" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:1">
       <c r="A356" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:1">
       <c r="A357" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:1">
       <c r="A358" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:1">
       <c r="A359" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:1">
       <c r="A360" s="1" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:1">
       <c r="A361" s="1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:1">
       <c r="A362" s="1" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:1">
       <c r="A363" s="1" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:1">
       <c r="A364" s="1" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:1">
       <c r="A365" s="1" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:1">
       <c r="A366" s="1" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:1">
       <c r="A367" s="1" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:1">
       <c r="A368" s="1" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:1">
       <c r="A369" s="1" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:1">
       <c r="A370" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:1">
       <c r="A371" s="1" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:1">
       <c r="A372" s="1" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:1">
       <c r="A373" s="1" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:1">
       <c r="A374" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:1">
       <c r="A375" s="1" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:1">
       <c r="A376" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:1">
       <c r="A377" s="1" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:1">
       <c r="A378" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:1">
       <c r="A379" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:1">
       <c r="A380" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:1">
       <c r="A381" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:1">
       <c r="A382" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:1">
       <c r="A383" s="1" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:1">
       <c r="A384" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:1">
       <c r="A385" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:1">
       <c r="A386" s="1" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:1">
       <c r="A387" s="1" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:1">
       <c r="A388" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:1">
       <c r="A389" s="1" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:1">
       <c r="A390" s="1" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:1">
       <c r="A391" s="1" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:1">
       <c r="A392" s="1" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:1">
       <c r="A393" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:1">
       <c r="A394" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:1">
       <c r="A395" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:1">
       <c r="A396" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:1">
       <c r="A397" s="1" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:1">
       <c r="A398" s="1" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:1">
       <c r="A399" s="1" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:1">
       <c r="A400" s="1" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:1">
       <c r="A401" s="1" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:1">
       <c r="A402" s="1" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:1">
       <c r="A403" s="1" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:1">
       <c r="A404" s="1" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:1">
       <c r="A405" s="1" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:1">
       <c r="A406" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:1">
       <c r="A407" s="1" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:1">
       <c r="A408" s="1" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:1">
       <c r="A409" s="1" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:1">
       <c r="A410" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:1">
       <c r="A411" s="1" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:1">
       <c r="A412" s="1" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:1">
       <c r="A413" s="1" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:1">
       <c r="A414" s="1" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:1">
       <c r="A415" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:1">
       <c r="A416" s="1" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:1">
       <c r="A417" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:1">
       <c r="A418" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:1">
       <c r="A419" s="1" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:1">
       <c r="A420" s="1" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:1">
       <c r="A421" s="1" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:1">
       <c r="A422" s="1" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:1">
       <c r="A423" s="1" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:1">
       <c r="A424" s="1" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:1">
       <c r="A425" s="1" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:1">
       <c r="A426" s="1" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:1">
       <c r="A427" s="1" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:1">
       <c r="A428" s="1" t="s">
         <v>479</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
